--- a/assets/PuntosTrabajadores2024.xlsx
+++ b/assets/PuntosTrabajadores2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Mes actual cel" sheetId="1" r:id="rId1"/>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>58.94</v>
+        <v>63.265000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -520,7 +520,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="2">
-        <v>62.67</v>
+        <v>63.265000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>58.94</v>
+        <v>63.265000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/assets/PuntosTrabajadores2024.xlsx
+++ b/assets/PuntosTrabajadores2024.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>Cuadrilla</t>
   </si>
@@ -481,7 +481,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>63.265000000000001</v>
+        <v>63.865000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -520,7 +520,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="2">
-        <v>63.265000000000001</v>
+        <v>63.865000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>63.265000000000001</v>
+        <v>63.865000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -578,7 +578,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="7">
-        <v>84.16</v>
+        <v>141.88999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/assets/PuntosTrabajadores2024.xlsx
+++ b/assets/PuntosTrabajadores2024.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
   <si>
     <t>Cuadrilla</t>
   </si>
@@ -481,7 +481,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>63.865000000000002</v>
+        <v>74.155000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -578,7 +578,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="7">
-        <v>141.88999999999999</v>
+        <v>160.05000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/assets/PuntosTrabajadores2024.xlsx
+++ b/assets/PuntosTrabajadores2024.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>74.155000000000001</v>
+        <v>82.974999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -520,7 +520,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="2">
-        <v>63.865000000000002</v>
+        <v>73.685000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>63.865000000000002</v>
+        <v>73.685000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -578,7 +578,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="7">
-        <v>160.05000000000001</v>
+        <v>194.75</v>
       </c>
     </row>
   </sheetData>

--- a/assets/PuntosTrabajadores2024.xlsx
+++ b/assets/PuntosTrabajadores2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mes actual cel" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
   <si>
     <t>Cuadrilla</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Octubre 2024</t>
+  </si>
+  <si>
+    <t>Noviembre 2024</t>
   </si>
 </sst>
 </file>
@@ -480,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,7 +512,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>82.974999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -520,7 +523,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="2">
-        <v>73.685000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -531,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>73.685000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -577,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -605,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="7">
-        <v>194.75</v>
+        <v>25.719200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -615,10 +618,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -643,7 +646,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -652,12 +655,12 @@
         <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>82.974999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -666,12 +669,12 @@
         <v>19</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>73.685000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -680,12 +683,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>73.685000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -699,7 +702,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -713,7 +716,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -722,6 +725,48 @@
         <v>4</v>
       </c>
       <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -732,10 +777,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,7 +805,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>22</v>
@@ -768,13 +813,13 @@
       <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
+      <c r="D2" s="7">
+        <v>194.75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>22</v>
@@ -783,6 +828,20 @@
         <v>20</v>
       </c>
       <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
     </row>

--- a/assets/PuntosTrabajadores2024.xlsx
+++ b/assets/PuntosTrabajadores2024.xlsx
@@ -484,7 +484,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,7 +512,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>80.150000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -523,7 +523,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>80.150000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -534,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>80.150000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -581,7 +581,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="7">
-        <v>25.719200000000001</v>
+        <v>38.81</v>
       </c>
     </row>
   </sheetData>

--- a/assets/PuntosTrabajadores2024.xlsx
+++ b/assets/PuntosTrabajadores2024.xlsx
@@ -581,7 +581,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="7">
-        <v>38.81</v>
+        <v>117.13720000000001</v>
       </c>
     </row>
   </sheetData>
